--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +110,16 @@
   </si>
   <si>
     <t>Guess who's back</t>
+  </si>
+  <si>
+    <t>974146599436745_1060867490764655</t>
+  </si>
+  <si>
+    <t>2019-03-08T09:35:37</t>
+  </si>
+  <si>
+    <t>Begging for likes 
+Me:</t>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,16 +573,16 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -598,16 +608,16 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -633,16 +643,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -668,16 +678,16 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E7">
         <v>977</v>
       </c>
       <c r="F7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -703,16 +713,16 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -725,6 +735,41 @@
       </c>
       <c r="K8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>69</v>
+      </c>
+      <c r="G9">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +110,16 @@
   </si>
   <si>
     <t>Guess who's back</t>
+  </si>
+  <si>
+    <t>974146599436745_1060867490764655</t>
+  </si>
+  <si>
+    <t>2019-03-08T09:35:37</t>
+  </si>
+  <si>
+    <t>Begging for likes 
+Me:</t>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,16 +573,16 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -598,16 +608,16 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -633,16 +643,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -668,16 +678,16 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E7">
         <v>977</v>
       </c>
       <c r="F7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -703,16 +713,16 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -725,6 +735,41 @@
       </c>
       <c r="K8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>124</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <v>86</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -713,7 +713,7 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G9">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>7</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,15 @@
   <si>
     <t>Begging for likes 
 Me:</t>
+  </si>
+  <si>
+    <t>974146599436745_1067138646804206</t>
+  </si>
+  <si>
+    <t>2019-03-19T09:01:07</t>
+  </si>
+  <si>
+    <t>Pateste ligo like na do kati</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -770,6 +779,41 @@
       </c>
       <c r="K9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H10">
         <v>0</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -792,16 +792,16 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <v>0</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Pateste ligo like na do kati</t>
+  </si>
+  <si>
+    <t>974146599436745_1071293919722012</t>
+  </si>
+  <si>
+    <t>2019-03-26T07:59:46</t>
+  </si>
+  <si>
+    <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
   </si>
 </sst>
 </file>
@@ -460,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -792,7 +801,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -807,13 +816,48 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -521,13 +521,13 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -556,13 +556,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -591,13 +591,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>41</v>
@@ -626,13 +626,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>42</v>
@@ -661,13 +661,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -696,13 +696,13 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E7">
         <v>977</v>
       </c>
       <c r="F7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>57</v>
@@ -731,13 +731,13 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>68</v>
@@ -766,13 +766,13 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9">
         <v>86</v>
@@ -801,13 +801,13 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>78</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -836,28 +836,28 @@
         <v>40</v>
       </c>
       <c r="D11">
+        <v>699</v>
+      </c>
+      <c r="E11">
+        <v>539</v>
+      </c>
+      <c r="F11">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>74</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>63</v>
+      </c>
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -801,7 +801,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>699</v>
+        <v>1417</v>
       </c>
       <c r="E11">
-        <v>539</v>
+        <v>1161</v>
       </c>
       <c r="F11">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G11">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +138,40 @@
   </si>
   <si>
     <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
+  </si>
+  <si>
+    <t>974146599436745_1075111582673579</t>
+  </si>
+  <si>
+    <t>2019-04-01T15:11:30</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Mediocre Level of Intelligence Quotient 
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>974146599436745_1075115836006487</t>
+  </si>
+  <si>
+    <t>2019-04-01T15:15:26</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
   </si>
 </sst>
 </file>
@@ -469,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,13 +555,13 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -556,13 +590,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -591,13 +625,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>41</v>
@@ -626,13 +660,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G5">
         <v>42</v>
@@ -661,13 +695,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -696,13 +730,13 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="E7">
         <v>977</v>
       </c>
       <c r="F7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>57</v>
@@ -731,13 +765,13 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>68</v>
@@ -766,28 +800,28 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>95</v>
+      </c>
+      <c r="G9">
         <v>87</v>
       </c>
-      <c r="G9">
-        <v>86</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -801,28 +835,28 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>88</v>
+      </c>
+      <c r="G10">
         <v>80</v>
       </c>
-      <c r="G10">
-        <v>78</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -836,28 +870,98 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1417</v>
+        <v>1447</v>
       </c>
       <c r="E11">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F11">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G11">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J11">
         <v>15</v>
       </c>
       <c r="K11">
-        <v>129</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>3282</v>
+      </c>
+      <c r="E12">
+        <v>940</v>
+      </c>
+      <c r="F12">
+        <v>1626</v>
+      </c>
+      <c r="G12">
+        <v>122</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>207</v>
+      </c>
+      <c r="J12">
+        <v>1528</v>
+      </c>
+      <c r="K12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>545</v>
+      </c>
+      <c r="E13">
+        <v>346</v>
+      </c>
+      <c r="F13">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>81</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -836,28 +836,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="E11">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F11">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J11">
         <v>15</v>
       </c>
       <c r="K11">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -138,40 +138,6 @@
   </si>
   <si>
     <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
-  </si>
-  <si>
-    <t>974146599436745_1075111582673579</t>
-  </si>
-  <si>
-    <t>2019-04-01T15:11:30</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Mediocre Level of Intelligence Quotient 
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>974146599436745_1075115836006487</t>
-  </si>
-  <si>
-    <t>2019-04-01T15:15:26</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Pateste Like sten selida mas
-3. Pateste "Mou aresei", akoma kai an den sas aresei
-4. Mediocre Level of Intelligence Quotient
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
   </si>
 </sst>
 </file>
@@ -503,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +521,13 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -590,13 +556,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -625,13 +591,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>41</v>
@@ -660,13 +626,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>42</v>
@@ -695,13 +661,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -730,13 +696,13 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E7">
         <v>977</v>
       </c>
       <c r="F7">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>57</v>
@@ -765,13 +731,13 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>68</v>
@@ -800,28 +766,28 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -835,28 +801,28 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -870,98 +836,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1447</v>
+        <v>1429</v>
       </c>
       <c r="E11">
         <v>1162</v>
       </c>
       <c r="F11">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11">
         <v>15</v>
       </c>
       <c r="K11">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>3282</v>
-      </c>
-      <c r="E12">
-        <v>940</v>
-      </c>
-      <c r="F12">
-        <v>1626</v>
-      </c>
-      <c r="G12">
-        <v>122</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>207</v>
-      </c>
-      <c r="J12">
-        <v>1528</v>
-      </c>
-      <c r="K12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>545</v>
-      </c>
-      <c r="E13">
-        <v>346</v>
-      </c>
-      <c r="F13">
-        <v>115</v>
-      </c>
-      <c r="G13">
-        <v>81</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>62</v>
-      </c>
-      <c r="J13">
-        <v>41</v>
-      </c>
-      <c r="K13">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -660,13 +660,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>42</v>
@@ -695,13 +695,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -730,13 +730,13 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E7">
         <v>977</v>
       </c>
       <c r="F7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <v>57</v>
@@ -765,13 +765,13 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>68</v>
@@ -800,16 +800,16 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="E11">
         <v>1162</v>
       </c>
       <c r="F11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -905,28 +905,28 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>3282</v>
+        <v>4644</v>
       </c>
       <c r="E12">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="F12">
-        <v>1626</v>
+        <v>2538</v>
       </c>
       <c r="G12">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="J12">
-        <v>1528</v>
+        <v>2431</v>
       </c>
       <c r="K12">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -940,28 +940,28 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>545</v>
+        <v>722</v>
       </c>
       <c r="E13">
         <v>346</v>
       </c>
       <c r="F13">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="G13">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H13">
         <v>13</v>
       </c>
       <c r="I13">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J13">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="K13">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Education is the most powerful weapon which you can use to change the world</t>
+  </si>
+  <si>
+    <t>974146599436745_983352855182786</t>
+  </si>
+  <si>
+    <t>2018-11-06T22:23:06</t>
+  </si>
+  <si>
+    <t>quote</t>
   </si>
   <si>
     <t>974146599436745_983353385182733</t>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E4">
         <v>348</v>
@@ -660,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -695,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -730,28 +739,28 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1321</v>
+        <v>114</v>
       </c>
       <c r="E7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>2</v>
-      </c>
-      <c r="K7">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -765,28 +774,28 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>117</v>
+        <v>1322</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="F8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G8">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -800,28 +809,28 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -835,28 +844,28 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -870,28 +879,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1456</v>
+        <v>128</v>
       </c>
       <c r="E11">
-        <v>1162</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G11">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -905,28 +914,28 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>4644</v>
+        <v>1457</v>
       </c>
       <c r="E12">
-        <v>950</v>
+        <v>1162</v>
       </c>
       <c r="F12">
-        <v>2538</v>
+        <v>116</v>
       </c>
       <c r="G12">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="J12">
-        <v>2431</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -940,28 +949,63 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>722</v>
+        <v>4828</v>
       </c>
       <c r="E13">
+        <v>950</v>
+      </c>
+      <c r="F13">
+        <v>2648</v>
+      </c>
+      <c r="G13">
+        <v>141</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>264</v>
+      </c>
+      <c r="J13">
+        <v>2549</v>
+      </c>
+      <c r="K13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>774</v>
+      </c>
+      <c r="E14">
         <v>346</v>
       </c>
-      <c r="F13">
-        <v>227</v>
-      </c>
-      <c r="G13">
-        <v>107</v>
-      </c>
-      <c r="H13">
+      <c r="F14">
+        <v>254</v>
+      </c>
+      <c r="G14">
+        <v>108</v>
+      </c>
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="I13">
-        <v>67</v>
-      </c>
-      <c r="J13">
-        <v>135</v>
-      </c>
-      <c r="K13">
-        <v>53</v>
+      <c r="I14">
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <v>163</v>
+      </c>
+      <c r="K14">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -949,13 +949,13 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>4828</v>
+        <v>4893</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2648</v>
+        <v>2670</v>
       </c>
       <c r="G13">
         <v>141</v>
@@ -964,10 +964,10 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J13">
-        <v>2549</v>
+        <v>2570</v>
       </c>
       <c r="K13">
         <v>145</v>
@@ -984,16 +984,16 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="J14">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K14">
         <v>56</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -914,13 +914,13 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E12">
         <v>1162</v>
       </c>
       <c r="F12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12">
         <v>94</v>
@@ -949,28 +949,28 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>4893</v>
+        <v>4995</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2670</v>
+        <v>2704</v>
       </c>
       <c r="G13">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J13">
-        <v>2570</v>
+        <v>2605</v>
       </c>
       <c r="K13">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -984,13 +984,13 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G14">
         <v>109</v>
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="J14">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14">
         <v>56</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -949,13 +949,13 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>4995</v>
+        <v>5001</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="G13">
         <v>143</v>
@@ -967,7 +967,7 @@
         <v>268</v>
       </c>
       <c r="J13">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="K13">
         <v>146</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -949,13 +949,13 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5001</v>
+        <v>5008</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="G13">
         <v>143</v>
@@ -967,7 +967,7 @@
         <v>268</v>
       </c>
       <c r="J13">
-        <v>2609</v>
+        <v>2616</v>
       </c>
       <c r="K13">
         <v>146</v>
@@ -984,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E14">
         <v>346</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -949,7 +949,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="E13">
         <v>950</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -180,6 +180,26 @@
 4. Mediocre Level of Intelligence Quotient
 O diagonismos legei stis 5 MaIou 2019, 23:59.
 Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>974146599436745_1081619658689438</t>
+  </si>
+  <si>
+    <t>2019-04-12T07:59:01</t>
+  </si>
+  <si>
+    <t>DIAGONISMOS
+[?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?]
+H My Thesis Page giortazei gia tous apisteutous 400 akolouthous, sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 10 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+U.G. Einai anagkaio na patesete Like ste Selida mas!
 Kale epitukhia!!!!</t>
   </si>
 </sst>
@@ -512,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,13 +969,13 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5010</v>
+        <v>5018</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="G13">
         <v>143</v>
@@ -967,7 +987,7 @@
         <v>268</v>
       </c>
       <c r="J13">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="K13">
         <v>146</v>
@@ -984,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E14">
         <v>346</v>
@@ -999,13 +1019,48 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>172</v>
       </c>
       <c r="K14">
         <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>637</v>
+      </c>
+      <c r="E15">
+        <v>225</v>
+      </c>
+      <c r="F15">
+        <v>244</v>
+      </c>
+      <c r="G15">
+        <v>119</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>140</v>
+      </c>
+      <c r="K15">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -969,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="E13">
         <v>950</v>
@@ -1004,13 +1004,13 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G14">
         <v>109</v>
@@ -1022,7 +1022,7 @@
         <v>71</v>
       </c>
       <c r="J14">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K14">
         <v>56</v>
@@ -1039,28 +1039,28 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>637</v>
+        <v>704</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="G15">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H15">
         <v>17</v>
       </c>
       <c r="I15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="K15">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -969,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="E13">
         <v>950</v>
@@ -1039,13 +1039,13 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G15">
         <v>123</v>
@@ -1057,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="J15">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K15">
         <v>39</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -864,13 +864,13 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>88</v>
@@ -899,13 +899,13 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11">
         <v>83</v>
@@ -934,13 +934,13 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E12">
         <v>1162</v>
       </c>
       <c r="F12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G12">
         <v>94</v>
@@ -969,13 +969,13 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5021</v>
+        <v>5024</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="G13">
         <v>143</v>
@@ -1004,13 +1004,13 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G14">
         <v>109</v>
@@ -1039,13 +1039,13 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G15">
         <v>123</v>
@@ -1057,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="J15">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K15">
         <v>39</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -899,16 +899,16 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E12">
         <v>1162</v>
       </c>
       <c r="F12">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5024</v>
+        <v>5025</v>
       </c>
       <c r="E13">
         <v>950</v>
@@ -978,19 +978,19 @@
         <v>2719</v>
       </c>
       <c r="G13">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J13">
         <v>2619</v>
       </c>
       <c r="K13">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1004,16 +1004,16 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G14">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -1039,13 +1039,13 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G15">
         <v>123</v>
@@ -1054,13 +1054,13 @@
         <v>17</v>
       </c>
       <c r="I15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K15">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -969,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5025</v>
+        <v>5028</v>
       </c>
       <c r="E13">
         <v>950</v>
@@ -1004,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E14">
         <v>346</v>
@@ -1039,13 +1039,13 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>123</v>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,23 @@
 O diagonismos legei stis 10 MaIou 2019, 23:59.
 Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
 U.G. Einai anagkaio na patesete Like ste Selida mas!
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>974146599436745_1085845504933520</t>
+  </si>
+  <si>
+    <t>2019-04-19T07:40:41</t>
+  </si>
+  <si>
+    <t>DIAGONISMOS-KLEROSE-LAKhEIOPhOROS AGORA 
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Pro Slim 500GB !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 15 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+U.G. Osoi kanoun like ste selida mekhri to telos tes semerines emeras ekhoun diplasies/2 pithanotetes na kerdisoun !! 
 Kale epitukhia!!!!</t>
   </si>
 </sst>
@@ -532,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,13 +636,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -654,13 +671,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>41</v>
@@ -689,13 +706,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>42</v>
@@ -724,13 +741,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -759,13 +776,13 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <v>50</v>
@@ -794,13 +811,13 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="E8">
         <v>977</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>57</v>
@@ -829,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -864,28 +881,28 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>9</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -899,28 +916,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -934,16 +951,16 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1460</v>
+        <v>1467</v>
       </c>
       <c r="E12">
         <v>1162</v>
       </c>
       <c r="F12">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G12">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -969,28 +986,28 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5028</v>
+        <v>5411</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>2719</v>
+        <v>3014</v>
       </c>
       <c r="G13">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="J13">
-        <v>2619</v>
+        <v>2896</v>
       </c>
       <c r="K13">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1004,28 +1021,28 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J14">
         <v>173</v>
       </c>
       <c r="K14">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1039,28 +1056,63 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>726</v>
+        <v>785</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G15">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H15">
         <v>17</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J15">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K15">
-        <v>40</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>3569</v>
+      </c>
+      <c r="E16">
+        <v>638</v>
+      </c>
+      <c r="F16">
+        <v>1823</v>
+      </c>
+      <c r="G16">
+        <v>204</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>188</v>
+      </c>
+      <c r="J16">
+        <v>1688</v>
+      </c>
+      <c r="K16">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -986,7 +986,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5411</v>
+        <v>5419</v>
       </c>
       <c r="E13">
         <v>950</v>
@@ -1021,13 +1021,13 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G14">
         <v>111</v>
@@ -1056,28 +1056,28 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G15">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15">
         <v>17</v>
       </c>
       <c r="I15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K15">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1091,28 +1091,28 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>3569</v>
+        <v>4405</v>
       </c>
       <c r="E16">
-        <v>638</v>
+        <v>806</v>
       </c>
       <c r="F16">
-        <v>1823</v>
+        <v>2202</v>
       </c>
       <c r="G16">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I16">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="J16">
-        <v>1688</v>
+        <v>2063</v>
       </c>
       <c r="K16">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -986,7 +986,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5419</v>
+        <v>5430</v>
       </c>
       <c r="E13">
         <v>950</v>
@@ -995,7 +995,7 @@
         <v>3014</v>
       </c>
       <c r="G13">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1007,7 +1007,7 @@
         <v>2896</v>
       </c>
       <c r="K13">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1056,13 +1056,13 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G15">
         <v>135</v>
@@ -1071,13 +1071,13 @@
         <v>17</v>
       </c>
       <c r="I15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="K15">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1091,28 +1091,28 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>4405</v>
+        <v>5180</v>
       </c>
       <c r="E16">
-        <v>806</v>
+        <v>1078</v>
       </c>
       <c r="F16">
-        <v>2202</v>
+        <v>2431</v>
       </c>
       <c r="G16">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H16">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="I16">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J16">
-        <v>2063</v>
+        <v>2288</v>
       </c>
       <c r="K16">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -951,7 +951,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E12">
         <v>1162</v>
@@ -966,13 +966,13 @@
         <v>6</v>
       </c>
       <c r="I12">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J12">
         <v>15</v>
       </c>
       <c r="K12">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -986,28 +986,28 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>5430</v>
+        <v>6533</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>3014</v>
+        <v>3739</v>
       </c>
       <c r="G13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="J13">
-        <v>2896</v>
+        <v>3624</v>
       </c>
       <c r="K13">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>812</v>
+        <v>865</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J14">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="K14">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1056,16 +1056,16 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G15">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H15">
         <v>17</v>
@@ -1074,7 +1074,7 @@
         <v>56</v>
       </c>
       <c r="J15">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="K15">
         <v>46</v>
@@ -1091,28 +1091,28 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>5180</v>
+        <v>5936</v>
       </c>
       <c r="E16">
         <v>1078</v>
       </c>
       <c r="F16">
-        <v>2431</v>
+        <v>2912</v>
       </c>
       <c r="G16">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H16">
         <v>107</v>
       </c>
       <c r="I16">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J16">
-        <v>2288</v>
+        <v>2780</v>
       </c>
       <c r="K16">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -601,16 +601,16 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E4">
         <v>348</v>
       </c>
       <c r="F4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -706,16 +706,16 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -776,16 +776,16 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E8">
         <v>977</v>
       </c>
       <c r="F8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -846,16 +846,16 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -881,16 +881,16 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -951,16 +951,16 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="E12">
         <v>1162</v>
       </c>
       <c r="F12">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G12">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -986,28 +986,28 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>6533</v>
+        <v>7341</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>3739</v>
+        <v>4142</v>
       </c>
       <c r="G13">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="J13">
-        <v>3624</v>
+        <v>4039</v>
       </c>
       <c r="K13">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1021,16 +1021,16 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="E14">
         <v>346</v>
       </c>
       <c r="F14">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G14">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -1056,28 +1056,28 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G15">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H15">
         <v>17</v>
       </c>
       <c r="I15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>252</v>
       </c>
       <c r="K15">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1091,28 +1091,28 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>5936</v>
+        <v>6302</v>
       </c>
       <c r="E16">
         <v>1078</v>
       </c>
       <c r="F16">
-        <v>2912</v>
+        <v>3126</v>
       </c>
       <c r="G16">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H16">
         <v>107</v>
       </c>
       <c r="I16">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="J16">
-        <v>2780</v>
+        <v>2976</v>
       </c>
       <c r="K16">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info.xlsx
+++ b/excels/lite/lite-Post-Info.xlsx
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E8">
         <v>977</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="E12">
         <v>1162</v>
@@ -986,13 +986,13 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>7341</v>
+        <v>7391</v>
       </c>
       <c r="E13">
         <v>950</v>
       </c>
       <c r="F13">
-        <v>4142</v>
+        <v>4165</v>
       </c>
       <c r="G13">
         <v>198</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J13">
-        <v>4039</v>
+        <v>4061</v>
       </c>
       <c r="K13">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1021,7 +1021,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E14">
         <v>346</v>
@@ -1056,16 +1056,16 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G15">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H15">
         <v>17</v>
@@ -1091,13 +1091,13 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>6302</v>
+        <v>6361</v>
       </c>
       <c r="E16">
         <v>1078</v>
       </c>
       <c r="F16">
-        <v>3126</v>
+        <v>3164</v>
       </c>
       <c r="G16">
         <v>258</v>
@@ -1109,7 +1109,7 @@
         <v>295</v>
       </c>
       <c r="J16">
-        <v>2976</v>
+        <v>3010</v>
       </c>
       <c r="K16">
         <v>224</v>
